--- a/ocms/src/test/resources/TestData/RecipientData.xlsx
+++ b/ocms/src/test/resources/TestData/RecipientData.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TestTfax" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="437">
   <si>
     <t>First Name</t>
   </si>
@@ -926,13 +926,418 @@
   </si>
   <si>
     <t>9997</t>
+  </si>
+  <si>
+    <t>Fax Number</t>
+  </si>
+  <si>
+    <t>Last Changed By</t>
+  </si>
+  <si>
+    <t>Last Changed On</t>
+  </si>
+  <si>
+    <t>8050134490</t>
+  </si>
+  <si>
+    <t>indiatetherfi\administrator</t>
+  </si>
+  <si>
+    <t>44444</t>
+  </si>
+  <si>
+    <t>89003</t>
+  </si>
+  <si>
+    <t>46802</t>
+  </si>
+  <si>
+    <t>5672903</t>
+  </si>
+  <si>
+    <t>56389</t>
+  </si>
+  <si>
+    <t>78389504</t>
+  </si>
+  <si>
+    <t>23567</t>
+  </si>
+  <si>
+    <t>4328209</t>
+  </si>
+  <si>
+    <t>3456789</t>
+  </si>
+  <si>
+    <t>83994535</t>
+  </si>
+  <si>
+    <t>456789</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>1142</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>1147</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>1153</t>
+  </si>
+  <si>
+    <t>1154</t>
+  </si>
+  <si>
+    <t>1155</t>
+  </si>
+  <si>
+    <t>11178</t>
+  </si>
+  <si>
+    <t>11179</t>
+  </si>
+  <si>
+    <t>11180</t>
+  </si>
+  <si>
+    <t>11181</t>
+  </si>
+  <si>
+    <t>11182</t>
+  </si>
+  <si>
+    <t>11183</t>
+  </si>
+  <si>
+    <t>11184</t>
+  </si>
+  <si>
+    <t>11185</t>
+  </si>
+  <si>
+    <t>11186</t>
+  </si>
+  <si>
+    <t>11187</t>
+  </si>
+  <si>
+    <t>11188</t>
+  </si>
+  <si>
+    <t>11189</t>
+  </si>
+  <si>
+    <t>11190</t>
+  </si>
+  <si>
+    <t>11191</t>
+  </si>
+  <si>
+    <t>11192</t>
+  </si>
+  <si>
+    <t>11193</t>
+  </si>
+  <si>
+    <t>11194</t>
+  </si>
+  <si>
+    <t>11195</t>
+  </si>
+  <si>
+    <t>11196</t>
+  </si>
+  <si>
+    <t>11197</t>
+  </si>
+  <si>
+    <t>11198</t>
+  </si>
+  <si>
+    <t>11125</t>
+  </si>
+  <si>
+    <t>11126</t>
+  </si>
+  <si>
+    <t>11127</t>
+  </si>
+  <si>
+    <t>11128</t>
+  </si>
+  <si>
+    <t>11129</t>
+  </si>
+  <si>
+    <t>11130</t>
+  </si>
+  <si>
+    <t>11131</t>
+  </si>
+  <si>
+    <t>11132</t>
+  </si>
+  <si>
+    <t>11133</t>
+  </si>
+  <si>
+    <t>11134</t>
+  </si>
+  <si>
+    <t>11135</t>
+  </si>
+  <si>
+    <t>11136</t>
+  </si>
+  <si>
+    <t>11137</t>
+  </si>
+  <si>
+    <t>11138</t>
+  </si>
+  <si>
+    <t>11139</t>
+  </si>
+  <si>
+    <t>11140</t>
+  </si>
+  <si>
+    <t>11141</t>
+  </si>
+  <si>
+    <t>11142</t>
+  </si>
+  <si>
+    <t>11143</t>
+  </si>
+  <si>
+    <t>11144</t>
+  </si>
+  <si>
+    <t>11145</t>
+  </si>
+  <si>
+    <t>11148</t>
+  </si>
+  <si>
+    <t>11149</t>
+  </si>
+  <si>
+    <t>11150</t>
+  </si>
+  <si>
+    <t>11234</t>
+  </si>
+  <si>
+    <t>11235</t>
+  </si>
+  <si>
+    <t>11236</t>
+  </si>
+  <si>
+    <t>11237</t>
+  </si>
+  <si>
+    <t>11238</t>
+  </si>
+  <si>
+    <t>11239</t>
+  </si>
+  <si>
+    <t>11240</t>
+  </si>
+  <si>
+    <t>11241</t>
+  </si>
+  <si>
+    <t>11242</t>
+  </si>
+  <si>
+    <t>11243</t>
+  </si>
+  <si>
+    <t>11244</t>
+  </si>
+  <si>
+    <t>11245</t>
+  </si>
+  <si>
+    <t>11246</t>
+  </si>
+  <si>
+    <t>11247</t>
+  </si>
+  <si>
+    <t>11248</t>
+  </si>
+  <si>
+    <t>11249</t>
+  </si>
+  <si>
+    <t>11250</t>
+  </si>
+  <si>
+    <t>11251</t>
+  </si>
+  <si>
+    <t>11252</t>
+  </si>
+  <si>
+    <t>11253</t>
+  </si>
+  <si>
+    <t>11254</t>
+  </si>
+  <si>
+    <t>11255</t>
+  </si>
+  <si>
+    <t>11256</t>
+  </si>
+  <si>
+    <t>11257</t>
+  </si>
+  <si>
+    <t>11258</t>
+  </si>
+  <si>
+    <t>11259</t>
+  </si>
+  <si>
+    <t>11231</t>
+  </si>
+  <si>
+    <t>11232</t>
+  </si>
+  <si>
+    <t>11233</t>
+  </si>
+  <si>
+    <t>9987288</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,13 +1345,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7A7A7A"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -961,9 +1378,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
@@ -2423,12 +2842,1461 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43626.729062500002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43624.510196759256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43624.51122685185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43624.512141203704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43624.513379629629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43624.515416666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43624.515798611108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43624.52171296296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43624.523379629631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43626.5783912037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43624.538530092592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43626.601817129631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43627.625694444447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43627.625717592593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43627.625740740739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43627.625775462962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43627.625798611109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43627.625821759262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43627.625844907408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43627.625879629632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43627.625902777778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43627.625925925924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43627.625960648147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43627.625983796293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43627.626006944447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="3">
+        <v>43627.626030092593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="3">
+        <v>43627.62605324074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="3">
+        <v>43627.626087962963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43627.626099537039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" s="3">
+        <v>43627.626134259262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43627.626145833332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" s="3">
+        <v>43627.626180555555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43627.626203703701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" s="3">
+        <v>43627.626215277778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+      <c r="B36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43627.626250000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="3">
+        <v>43627.626273148147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" s="3">
+        <v>43627.626296296294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" s="3">
+        <v>43627.626331018517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="3">
+        <v>43627.62636574074</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41" s="3">
+        <v>43627.626388888886</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43627.626423611109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" s="3">
+        <v>43627.626446759263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="3">
+        <v>43627.626469907409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>350</v>
+      </c>
+      <c r="B45" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="3">
+        <v>43627.626504629632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46" t="s">
+        <v>307</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43627.626539351855</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="3">
+        <v>43627.626562500001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" t="s">
+        <v>307</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43627.626608796294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" t="s">
+        <v>307</v>
+      </c>
+      <c r="C49" s="3">
+        <v>43627.626643518517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50" t="s">
+        <v>307</v>
+      </c>
+      <c r="C50" s="3">
+        <v>43627.626666666663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B51" t="s">
+        <v>307</v>
+      </c>
+      <c r="C51" s="3">
+        <v>43627.626689814817</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>357</v>
+      </c>
+      <c r="B52" t="s">
+        <v>307</v>
+      </c>
+      <c r="C52" s="3">
+        <v>43627.626712962963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" s="3">
+        <v>43627.626736111109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54" s="3">
+        <v>43627.626759259256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>360</v>
+      </c>
+      <c r="B55" t="s">
+        <v>307</v>
+      </c>
+      <c r="C55" s="3">
+        <v>43627.626782407409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>361</v>
+      </c>
+      <c r="B56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C56" s="3">
+        <v>43627.626793981479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>362</v>
+      </c>
+      <c r="B57" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" s="3">
+        <v>43627.629652777781</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>363</v>
+      </c>
+      <c r="B58" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58" s="3">
+        <v>43627.629675925928</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59" t="s">
+        <v>307</v>
+      </c>
+      <c r="C59" s="3">
+        <v>43627.629710648151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>365</v>
+      </c>
+      <c r="B60" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" s="3">
+        <v>43627.629733796297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" t="s">
+        <v>307</v>
+      </c>
+      <c r="C61" s="3">
+        <v>43627.629756944443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>367</v>
+      </c>
+      <c r="B62" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="3">
+        <v>43627.629791666666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63" s="3">
+        <v>43627.629814814813</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C64" s="3">
+        <v>43627.629849537036</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="3">
+        <v>43627.629872685182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>371</v>
+      </c>
+      <c r="B66" t="s">
+        <v>307</v>
+      </c>
+      <c r="C66" s="3">
+        <v>43627.629907407405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" s="3">
+        <v>43627.629918981482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>373</v>
+      </c>
+      <c r="B68" t="s">
+        <v>307</v>
+      </c>
+      <c r="C68" s="3">
+        <v>43627.629953703705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>374</v>
+      </c>
+      <c r="B69" t="s">
+        <v>307</v>
+      </c>
+      <c r="C69" s="3">
+        <v>43627.629976851851</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" s="3">
+        <v>43627.63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>376</v>
+      </c>
+      <c r="B71" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" s="3">
+        <v>43627.630023148151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>377</v>
+      </c>
+      <c r="B72" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" s="3">
+        <v>43627.630046296297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" s="3">
+        <v>43627.630069444444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>379</v>
+      </c>
+      <c r="B74" t="s">
+        <v>307</v>
+      </c>
+      <c r="C74" s="3">
+        <v>43627.63009259259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>380</v>
+      </c>
+      <c r="B75" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" s="3">
+        <v>43627.630115740743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>381</v>
+      </c>
+      <c r="B76" t="s">
+        <v>307</v>
+      </c>
+      <c r="C76" s="3">
+        <v>43627.63013888889</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>382</v>
+      </c>
+      <c r="B77" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" s="3">
+        <v>43627.630162037036</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>383</v>
+      </c>
+      <c r="B78" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78" s="3">
+        <v>43627.633206018516</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79" t="s">
+        <v>307</v>
+      </c>
+      <c r="C79" s="3">
+        <v>43627.633229166669</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80" t="s">
+        <v>307</v>
+      </c>
+      <c r="C80" s="3">
+        <v>43627.633252314816</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" t="s">
+        <v>307</v>
+      </c>
+      <c r="C81" s="3">
+        <v>43627.633287037039</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>387</v>
+      </c>
+      <c r="B82" t="s">
+        <v>307</v>
+      </c>
+      <c r="C82" s="3">
+        <v>43627.633310185185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>388</v>
+      </c>
+      <c r="B83" t="s">
+        <v>307</v>
+      </c>
+      <c r="C83" s="3">
+        <v>43627.633344907408</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>389</v>
+      </c>
+      <c r="B84" t="s">
+        <v>307</v>
+      </c>
+      <c r="C84" s="3">
+        <v>43627.633368055554</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>390</v>
+      </c>
+      <c r="B85" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" s="3">
+        <v>43627.633391203701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>391</v>
+      </c>
+      <c r="B86" t="s">
+        <v>307</v>
+      </c>
+      <c r="C86" s="3">
+        <v>43627.633425925924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>392</v>
+      </c>
+      <c r="B87" t="s">
+        <v>307</v>
+      </c>
+      <c r="C87" s="3">
+        <v>43627.633449074077</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88" s="3">
+        <v>43627.633483796293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>394</v>
+      </c>
+      <c r="B89" t="s">
+        <v>307</v>
+      </c>
+      <c r="C89" s="3">
+        <v>43627.633506944447</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>395</v>
+      </c>
+      <c r="B90" t="s">
+        <v>307</v>
+      </c>
+      <c r="C90" s="3">
+        <v>43627.633530092593</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>396</v>
+      </c>
+      <c r="B91" t="s">
+        <v>307</v>
+      </c>
+      <c r="C91" s="3">
+        <v>43627.633564814816</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>397</v>
+      </c>
+      <c r="B92" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" s="3">
+        <v>43627.633576388886</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>398</v>
+      </c>
+      <c r="B93" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="3">
+        <v>43627.633599537039</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>399</v>
+      </c>
+      <c r="B94" t="s">
+        <v>307</v>
+      </c>
+      <c r="C94" s="3">
+        <v>43627.633622685185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>400</v>
+      </c>
+      <c r="B95" t="s">
+        <v>307</v>
+      </c>
+      <c r="C95" s="3">
+        <v>43627.633657407408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>401</v>
+      </c>
+      <c r="B96" t="s">
+        <v>307</v>
+      </c>
+      <c r="C96" s="3">
+        <v>43627.633680555555</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>402</v>
+      </c>
+      <c r="B97" t="s">
+        <v>307</v>
+      </c>
+      <c r="C97" s="3">
+        <v>43627.633715277778</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>403</v>
+      </c>
+      <c r="B98" t="s">
+        <v>307</v>
+      </c>
+      <c r="C98" s="3">
+        <v>43627.633738425924</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>404</v>
+      </c>
+      <c r="B99" t="s">
+        <v>307</v>
+      </c>
+      <c r="C99" s="3">
+        <v>43627.633831018517</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>405</v>
+      </c>
+      <c r="B100" t="s">
+        <v>307</v>
+      </c>
+      <c r="C100" s="3">
+        <v>43627.63386574074</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>406</v>
+      </c>
+      <c r="B101" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" s="3">
+        <v>43627.633888888886</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>407</v>
+      </c>
+      <c r="B102" t="s">
+        <v>307</v>
+      </c>
+      <c r="C102" s="3">
+        <v>43627.637048611112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>408</v>
+      </c>
+      <c r="B103" t="s">
+        <v>307</v>
+      </c>
+      <c r="C103" s="3">
+        <v>43627.637071759258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>409</v>
+      </c>
+      <c r="B104" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" s="3">
+        <v>43627.637094907404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>410</v>
+      </c>
+      <c r="B105" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" s="3">
+        <v>43627.637118055558</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>411</v>
+      </c>
+      <c r="B106" t="s">
+        <v>307</v>
+      </c>
+      <c r="C106" s="3">
+        <v>43627.637152777781</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>412</v>
+      </c>
+      <c r="B107" t="s">
+        <v>307</v>
+      </c>
+      <c r="C107" s="3">
+        <v>43627.637175925927</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>413</v>
+      </c>
+      <c r="B108" t="s">
+        <v>307</v>
+      </c>
+      <c r="C108" s="3">
+        <v>43627.637199074074</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>414</v>
+      </c>
+      <c r="B109" t="s">
+        <v>307</v>
+      </c>
+      <c r="C109" s="3">
+        <v>43627.63722222222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>415</v>
+      </c>
+      <c r="B110" t="s">
+        <v>307</v>
+      </c>
+      <c r="C110" s="3">
+        <v>43627.637256944443</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>416</v>
+      </c>
+      <c r="B111" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111" s="3">
+        <v>43627.637280092589</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>417</v>
+      </c>
+      <c r="B112" t="s">
+        <v>307</v>
+      </c>
+      <c r="C112" s="3">
+        <v>43627.637314814812</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>418</v>
+      </c>
+      <c r="B113" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" s="3">
+        <v>43627.637337962966</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>419</v>
+      </c>
+      <c r="B114" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" s="3">
+        <v>43627.637372685182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>420</v>
+      </c>
+      <c r="B115" t="s">
+        <v>307</v>
+      </c>
+      <c r="C115" s="3">
+        <v>43627.637395833335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>421</v>
+      </c>
+      <c r="B116" t="s">
+        <v>307</v>
+      </c>
+      <c r="C116" s="3">
+        <v>43627.637430555558</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>422</v>
+      </c>
+      <c r="B117" t="s">
+        <v>307</v>
+      </c>
+      <c r="C117" s="3">
+        <v>43627.637453703705</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>423</v>
+      </c>
+      <c r="B118" t="s">
+        <v>307</v>
+      </c>
+      <c r="C118" s="3">
+        <v>43627.637488425928</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>424</v>
+      </c>
+      <c r="B119" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" s="3">
+        <v>43627.637511574074</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>425</v>
+      </c>
+      <c r="B120" t="s">
+        <v>307</v>
+      </c>
+      <c r="C120" s="3">
+        <v>43627.637546296297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>426</v>
+      </c>
+      <c r="B121" t="s">
+        <v>307</v>
+      </c>
+      <c r="C121" s="3">
+        <v>43627.637569444443</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>427</v>
+      </c>
+      <c r="B122" t="s">
+        <v>307</v>
+      </c>
+      <c r="C122" s="3">
+        <v>43627.637604166666</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>428</v>
+      </c>
+      <c r="B123" t="s">
+        <v>307</v>
+      </c>
+      <c r="C123" s="3">
+        <v>43627.637627314813</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>429</v>
+      </c>
+      <c r="B124" t="s">
+        <v>307</v>
+      </c>
+      <c r="C124" s="3">
+        <v>43627.637650462966</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>430</v>
+      </c>
+      <c r="B125" t="s">
+        <v>307</v>
+      </c>
+      <c r="C125" s="3">
+        <v>43627.637685185182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>431</v>
+      </c>
+      <c r="B126" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" s="3">
+        <v>43627.637696759259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>432</v>
+      </c>
+      <c r="B127" t="s">
+        <v>307</v>
+      </c>
+      <c r="C127" s="3">
+        <v>43627.637743055559</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>433</v>
+      </c>
+      <c r="B128" t="s">
+        <v>307</v>
+      </c>
+      <c r="C128" s="3">
+        <v>43627.639988425923</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>434</v>
+      </c>
+      <c r="B129" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129" s="3">
+        <v>43627.640011574076</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>435</v>
+      </c>
+      <c r="B130" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="3">
+        <v>43627.640046296299</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>436</v>
+      </c>
+      <c r="B131" t="s">
+        <v>307</v>
+      </c>
+      <c r="C131" s="3">
+        <v>43628.53837962963</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
